--- a/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
+++ b/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
+++ b/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>756839391</v>
+        <v>679932318</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,21 +471,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>T-23-10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>679932318</v>
+        <v>696778574</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,21 +494,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>T-23-10</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,16 +517,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2.339285714285714</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="5">
@@ -549,12 +549,12 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>770456244</v>
+        <v>1574107163</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AQ-H-3000</t>
+          <t>sc-bls15750V</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.7017651888341544</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1574107163</v>
+        <v>1594235812</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -586,21 +586,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sc-bls15750V</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1594235812</v>
+        <v>770456244</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -609,21 +609,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ-H-3000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>696778574</v>
+        <v>1225355776</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -632,16 +632,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>2.11347642505278</v>
       </c>
     </row>
     <row r="10">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="11">
@@ -687,12 +687,12 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.738095238095238</v>
+        <v>1.548909218859958</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>990330535</v>
+        <v>1363095178</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -701,12 +701,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -715,7 +715,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1363095178</v>
+        <v>990330535</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -738,7 +738,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>735729922</v>
+        <v>990330535</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -747,21 +747,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>677981434</v>
+        <v>696780797</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -770,21 +770,21 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>678320094</v>
+        <v>696778824</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>696778985</v>
+        <v>756839391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -816,16 +816,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="18">
@@ -848,12 +848,12 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>696778824</v>
+        <v>696778574</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -862,21 +862,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>756839391</v>
+        <v>696778985</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>990330535</v>
+        <v>677981434</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.25</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>679839793</v>
+        <v>677953003</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -931,21 +931,21 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>696778574</v>
+        <v>679839793</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -954,21 +954,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -977,21 +977,21 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1225355776</v>
+        <v>678320094</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1000,21 +1000,21 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.5476190476190476</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>677953003</v>
+        <v>1225355776</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1023,21 +1023,21 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0.5658866995073892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>696780797</v>
+        <v>735729922</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>677926124</v>
+        <v>756835534</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1069,16 +1069,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="29">
@@ -1106,7 +1106,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>677942539</v>
+        <v>1594235812</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1115,21 +1115,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2678571428571428</v>
+        <v>1.356732348111658</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1594235812</v>
+        <v>677883754</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1138,21 +1138,21 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.017857142857143</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>756835534</v>
+        <v>677926124</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1161,21 +1161,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>678344590</v>
+        <v>1742838765</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1742838765</v>
+        <v>679839793</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1207,21 +1207,21 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>677926124</v>
+        <v>696778574</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1230,21 +1230,21 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.5178571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>678360471</v>
+        <v>677981434</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1253,21 +1253,21 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>677942539</v>
+        <v>678320094</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>696778985</v>
+        <v>677883754</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1299,21 +1299,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1322,21 +1322,21 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.8642857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>990330535</v>
+        <v>677953003</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1345,21 +1345,21 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.7719622331691297</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>679839793</v>
+        <v>677942539</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1391,21 +1391,21 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>696778574</v>
+        <v>990330535</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1414,21 +1414,21 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>696778824</v>
+        <v>678344590</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1437,21 +1437,21 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>696780797</v>
+        <v>678360471</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1460,21 +1460,21 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>678320094</v>
+        <v>696780797</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1483,21 +1483,21 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1506,21 +1506,21 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>677953003</v>
+        <v>677926124</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1529,21 +1529,21 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.75</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>678366074</v>
+        <v>1364320919</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1552,21 +1552,21 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1364320919</v>
+        <v>678366074</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1575,21 +1575,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>678412576</v>
+        <v>735729922</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1598,16 +1598,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="52">
@@ -1635,7 +1635,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>735729922</v>
+        <v>678412576</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1644,21 +1644,21 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>770446017</v>
+        <v>677988274</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>677988274</v>
+        <v>770446017</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1690,12 +1690,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>955546493</v>
+        <v>678412576</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1713,21 +1713,21 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>678412576</v>
+        <v>677981434</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1736,39 +1736,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>677883754</v>
+        <v>955546493</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ДОМОДЕДОВО_РФЦ</t>
+          <t>ГРИВНО_РФЦ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="59">
@@ -1791,12 +1791,12 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>678360471</v>
+        <v>696778574</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1819,7 +1819,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1828,21 +1828,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>756835534</v>
+        <v>678320094</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1225355776</v>
+        <v>756835534</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1874,21 +1874,21 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2.75</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>677926124</v>
+        <v>677883754</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>696778574</v>
+        <v>677981434</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1920,21 +1920,21 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2857142857142857</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>678320094</v>
+        <v>677942539</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1966,21 +1966,21 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>677883754</v>
+        <v>677926124</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1989,16 +1989,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2021,12 +2021,12 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>677942539</v>
+        <v>696778985</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2035,44 +2035,44 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.75</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>679839793</v>
+        <v>678360471</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
+          <t>ДОМОДЕДОВО_РФЦ</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1150051366</v>
+        <v>696780797</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2081,21 +2081,21 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>sc-crp15750V</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>678412576</v>
+        <v>677926124</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2104,21 +2104,21 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>696778574</v>
+        <v>756839133</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2127,21 +2127,21 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>696780797</v>
+        <v>696778574</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2150,21 +2150,21 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>696778824</v>
+        <v>677981434</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>677981434</v>
+        <v>679839793</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2196,21 +2196,21 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>735663069</v>
+        <v>696778824</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2219,21 +2219,21 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>677926124</v>
+        <v>1225355776</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2242,21 +2242,21 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1225355776</v>
+        <v>735663069</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2265,21 +2265,21 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>756839133</v>
+        <v>678412576</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2288,44 +2288,44 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>696780797</v>
+        <v>1150051366</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>sc-crp15750V</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>683599056</v>
+        <v>696778574</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2334,21 +2334,21 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>766093308</v>
+        <v>678366074</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2357,21 +2357,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TS-1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.25</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>990330535</v>
+        <v>683599056</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2403,16 +2403,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="87">
@@ -2435,12 +2435,12 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>696778985</v>
+        <v>696780797</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2449,21 +2449,21 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677926124</v>
+        <v>677883754</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2472,21 +2472,21 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>678320094</v>
+        <v>677926124</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2495,21 +2495,21 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>677883754</v>
+        <v>696778985</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2518,21 +2518,21 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2541,16 +2541,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="93">
@@ -2578,7 +2578,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1225355776</v>
+        <v>677988274</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2587,21 +2587,21 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.166666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>735663069</v>
+        <v>756839391</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>678366074</v>
+        <v>677883754</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2633,21 +2633,21 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>955546493</v>
+        <v>696778824</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2656,21 +2656,21 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2679,113 +2679,113 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>955551690</v>
+        <v>990330535</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ED-20-ETAL5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>955556464</v>
+        <v>766093308</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TS-5-teta500</t>
+          <t>TS-1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
+          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>955553282</v>
+        <v>735663069</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ED-20-ETAL2500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>678412576</v>
+        <v>1742838765</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>677981434</v>
+        <v>955556464</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -2794,62 +2794,62 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TS-5-teta500</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>688529966</v>
+        <v>677981434</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1225355776</v>
+        <v>955551690</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-ETAL5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="106">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2872,127 +2872,127 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>678356317</v>
+        <v>955553282</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>МИНСК_МПСЦ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>ED-20-ETAL2500</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.5175492610837439</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>677926124</v>
+        <v>688529966</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.5357142857142857</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1225355776</v>
+        <v>678412576</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.011904761904762</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>756835534</v>
+        <v>1225355776</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.03571428571428571</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>696778824</v>
+        <v>678356317</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>МИНСК_МПСЦ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.625</v>
+        <v>0.2050492610837438</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>677942539</v>
+        <v>696780797</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3001,21 +3001,21 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.375</v>
+        <v>1.023399014778325</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>696780797</v>
+        <v>696778574</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3024,21 +3024,21 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1.517857142857143</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>678360471</v>
+        <v>696778985</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3047,21 +3047,21 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3070,21 +3070,21 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>677883754</v>
+        <v>696778824</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3093,21 +3093,21 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>677981434</v>
+        <v>678360471</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3116,21 +3116,21 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>696778574</v>
+        <v>678320094</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3139,16 +3139,16 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="119">
@@ -3171,12 +3171,12 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3185,21 +3185,21 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3208,21 +3208,21 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>678320094</v>
+        <v>677981434</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3231,104 +3231,104 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>677981434</v>
+        <v>677942539</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1225355776</v>
+        <v>990330535</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>955553922</v>
+        <v>1225355776</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1.035714285714286</v>
+        <v>0.8882389162561577</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>696780797</v>
+        <v>677953003</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -3337,7 +3337,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>696778824</v>
+        <v>756839391</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3346,21 +3346,21 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>770446017</v>
+        <v>677981434</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3369,12 +3369,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3383,7 +3383,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>677953003</v>
+        <v>679839793</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3392,12 +3392,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3406,7 +3406,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>756835534</v>
+        <v>770446017</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3415,21 +3415,21 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3438,21 +3438,21 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>677883754</v>
+        <v>696780797</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3461,21 +3461,21 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>0.2678571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3484,21 +3484,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3507,21 +3507,21 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>756839391</v>
+        <v>677953003</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3530,21 +3530,21 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>679839793</v>
+        <v>1225355776</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3553,108 +3553,108 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.25</v>
+        <v>0.8081896551724138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>678034901</v>
+        <v>696778824</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>AQgel300</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.25</v>
+        <v>0.05233990147783251</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1225355776</v>
+        <v>678360471</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>696780797</v>
+        <v>955553922</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.7134646962233169</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>678412576</v>
+        <v>696778574</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="141">
@@ -3677,628 +3677,628 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>955546493</v>
+        <v>735729922</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5178571428571429</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>1225355776</v>
+        <v>678034901</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQgel300</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>4.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>678344590</v>
+        <v>696780797</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>678366074</v>
+        <v>678412576</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>678412576</v>
+        <v>1225355776</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1225355776</v>
+        <v>678344590</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>678356317</v>
+        <v>955546493</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>735769060</v>
+        <v>696780797</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ETAL-2500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>696778824</v>
+        <v>1225355776</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.03571428571428571</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>688529966</v>
+        <v>696778574</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>1364320919</v>
+        <v>677981434</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>955546493</v>
+        <v>678356317</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.375</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1363091992</v>
+        <v>1225355776</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TEPOLV-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>678356317</v>
+        <v>678412576</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>955556860</v>
+        <v>735769060</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>ETAL-2500</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>756839391</v>
+        <v>696778824</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>756839133</v>
+        <v>688529966</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>678412576</v>
+        <v>678356317</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>678320094</v>
+        <v>1363091992</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>TEPOLV-1.5</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>688529966</v>
+        <v>1364320919</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>2.69047619047619</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>670494599</v>
+        <v>756839133</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ED-20-PEPA10</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>756839133</v>
+        <v>735663069</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>678366074</v>
+        <v>756839391</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>678412576</v>
+        <v>955556860</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="169">
@@ -4307,7 +4307,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4321,168 +4321,168 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>756839391</v>
+        <v>678320094</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1225355776</v>
+        <v>688529966</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1.083333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>955554865</v>
+        <v>1225355776</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>0.25</v>
+        <v>2.360309641097818</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>955553922</v>
+        <v>756839133</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>955546493</v>
+        <v>670494599</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA10</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>756839391</v>
+        <v>678366074</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>678366074</v>
+        <v>678412576</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="177">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4505,26 +4505,26 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1225355776</v>
+        <v>677953003</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4533,186 +4533,186 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1594235812</v>
+        <v>955553922</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>955546493</v>
+        <v>756839133</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>0.5178571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>756838720</v>
+        <v>678412576</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TETA-1000</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>2.333333333333333</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>735729922</v>
+        <v>990330535</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.03571428571428571</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1364320919</v>
+        <v>678274222</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="187">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4735,141 +4735,141 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>955554865</v>
+        <v>679839793</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>955553922</v>
+        <v>756835534</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>678366074</v>
+        <v>677926124</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>677988274</v>
+        <v>696778574</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>677953003</v>
+        <v>955554865</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -4878,117 +4878,117 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>678320094</v>
+        <v>1742838765</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>0.2678571428571428</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>677942539</v>
+        <v>678320094</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>677926124</v>
+        <v>955546493</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>679839793</v>
+        <v>678366074</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>678366074</v>
+        <v>756839391</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="199">
@@ -4997,7 +4997,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5011,605 +5011,605 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1742838765</v>
+        <v>1594235812</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>683599056</v>
+        <v>735729922</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>756839133</v>
+        <v>677926124</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>735729922</v>
+        <v>696778824</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>735663069</v>
+        <v>677953003</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>955546493</v>
+        <v>696778985</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>990330535</v>
+        <v>756838720</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TETA-1000</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>0.07142857142857142</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>696780797</v>
+        <v>756835534</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1364320919</v>
+        <v>955546493</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>696778824</v>
+        <v>677883754</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>696778574</v>
+        <v>735729922</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>678366074</v>
+        <v>1742838765</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>955546493</v>
+        <v>677926124</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>0.07142857142857142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>677883754</v>
+        <v>735663069</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>4.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>677883754</v>
+        <v>677926124</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>677926124</v>
+        <v>1364320919</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>0.07142857142857142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>677981434</v>
+        <v>955554865</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>678356317</v>
+        <v>678366074</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>679839793</v>
+        <v>955553922</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>696778574</v>
+        <v>696778985</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>0.03571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -5632,260 +5632,1226 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>696778985</v>
+        <v>696780797</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>696780797</v>
+        <v>756835534</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>0.03571428571428571</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>677953003</v>
+        <v>756839391</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>677981434</v>
+        <v>1742838765</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1.482142857142857</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>756839133</v>
+        <v>677942539</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>2</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>735729922</v>
+        <v>696778824</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.5</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>756835534</v>
+        <v>677953003</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>990330535</v>
+        <v>756835534</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>0.9910714285714286</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>2.928571428571428</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1.666666666666667</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.3598111658456486</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>677988274</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA-5</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1364320919</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>TEPOLV-15</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
         <v>756839391</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>ED-20-TETA5</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>678320094</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>AQ3000</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0.6339285714285714</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>683599056</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>TS-5</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0.2619047619047619</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>955546493</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>TS-1-pepa100</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>735663069</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>PEPA-1000</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0.1723111658456486</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Санкт_Петербург_РФЦ</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>678366074</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>EPIC750</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>955546493</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>TS-1-pepa100</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>756839391</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>ТВЕРЬ_РФЦ</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>ED-20-TETA5</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>696778824</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>EPO3D-750</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>678356317</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>EPIC1500</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1900656814449918</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0.8342364532019705</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1.461576354679803</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>756835534</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>ED-20-TETA1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>756839391</v>
+      </c>
+      <c r="B279" t="inlineStr">
         <is>
           <t>ХОРУГВИНО_РФЦ</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>ED-20-TETA5</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
-      <c r="E237" t="n">
-        <v>0.07142857142857142</v>
+      <c r="E279" t="n">
+        <v>0.07019704433497537</v>
       </c>
     </row>
   </sheetData>

--- a/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
+++ b/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>696778574</v>
+        <v>1574107163</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,21 +494,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>sc-bls15750V</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.7017651888341544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>756839391</v>
+        <v>1594235812</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,12 +517,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -531,7 +531,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>735729922</v>
+        <v>696778574</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -540,21 +540,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1574107163</v>
+        <v>756839391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sc-bls15750V</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7017651888341544</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1594235812</v>
+        <v>770456244</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -586,21 +586,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ-H-3000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>770456244</v>
+        <v>735729922</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -609,12 +609,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AQ-H-3000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -646,7 +646,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>756839133</v>
+        <v>1363095178</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -655,16 +655,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -692,7 +692,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1363095178</v>
+        <v>756839133</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -701,16 +701,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="13">
@@ -738,7 +738,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>990330535</v>
+        <v>735729922</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -747,16 +747,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="15">
@@ -784,7 +784,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>696778824</v>
+        <v>677953003</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>756839391</v>
+        <v>677981434</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -816,21 +816,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>678360471</v>
+        <v>677942539</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -839,21 +839,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -862,21 +862,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>696778985</v>
+        <v>1594235812</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.07019704433497537</v>
+        <v>1.356732348111658</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>677981434</v>
+        <v>756835534</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>677953003</v>
+        <v>696778985</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -931,21 +931,21 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>679839793</v>
+        <v>756839391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -954,12 +954,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -968,7 +968,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677942539</v>
+        <v>696778574</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -977,21 +977,21 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>678320094</v>
+        <v>679839793</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1014,7 +1014,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1225355776</v>
+        <v>677926124</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1023,21 +1023,21 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5658866995073892</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>735729922</v>
+        <v>1742838765</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1069,21 +1069,21 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1742838765</v>
+        <v>696778824</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1092,21 +1092,21 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1594235812</v>
+        <v>678360471</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1115,21 +1115,21 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.356732348111658</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1138,21 +1138,21 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>677926124</v>
+        <v>1225355776</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1161,21 +1161,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5658866995073892</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1742838765</v>
+        <v>678320094</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>679839793</v>
+        <v>990330535</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1207,16 +1207,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.07019704433497537</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>678320094</v>
+        <v>679839793</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>677883754</v>
+        <v>678344590</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1299,21 +1299,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>696778985</v>
+        <v>696778824</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1322,16 +1322,16 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="40">
@@ -1382,7 +1382,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>677942539</v>
+        <v>678360471</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1405,7 +1405,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>990330535</v>
+        <v>696778985</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1414,21 +1414,21 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>678344590</v>
+        <v>696780797</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1460,21 +1460,21 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>696780797</v>
+        <v>1742838765</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1483,21 +1483,21 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>696778824</v>
+        <v>677926124</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1506,21 +1506,21 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1529,21 +1529,21 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.3567323481116584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1364320919</v>
+        <v>678412576</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1552,12 +1552,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1589,7 +1589,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>735729922</v>
+        <v>1225355776</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1598,21 +1598,21 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1067323481116585</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1225355776</v>
+        <v>735729922</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1621,21 +1621,21 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.5</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>678412576</v>
+        <v>1364320919</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -1658,7 +1658,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1667,21 +1667,21 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.5</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>770446017</v>
+        <v>677981434</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1690,16 +1690,16 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -1727,7 +1727,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>677981434</v>
+        <v>770446017</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1736,21 +1736,21 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>955546493</v>
+        <v>677988274</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1759,21 +1759,21 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.3801313628899836</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>696778824</v>
+        <v>696778574</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1782,21 +1782,21 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1067323481116585</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>696778574</v>
+        <v>696778824</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1805,21 +1805,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1828,21 +1828,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2134646962233169</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>678320094</v>
+        <v>678360471</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1874,21 +1874,21 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.07019704433497537</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>677981434</v>
+        <v>677926124</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1920,16 +1920,16 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1957,7 +1957,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>677942539</v>
+        <v>677981434</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1966,21 +1966,21 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1989,16 +1989,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69">
@@ -2049,7 +2049,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>678360471</v>
+        <v>677883754</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2058,21 +2058,21 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.5</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>696780797</v>
+        <v>735663069</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2081,12 +2081,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2095,7 +2095,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>677926124</v>
+        <v>696778574</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2118,7 +2118,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>756839133</v>
+        <v>677981434</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2127,21 +2127,21 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>696778574</v>
+        <v>756839133</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2150,21 +2150,21 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.75</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>679839793</v>
+        <v>1150051366</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2196,12 +2196,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>sc-crp15750V</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2210,7 +2210,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>696778824</v>
+        <v>678412576</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2219,21 +2219,21 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2242,21 +2242,21 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2265,21 +2265,21 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>678412576</v>
+        <v>677926124</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2288,21 +2288,21 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1150051366</v>
+        <v>696780797</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sc-crp15750V</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Каменный ковер, покрытие из Крымской гальки (5-10 мм.)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2325,30 +2325,30 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>696778574</v>
+        <v>679839793</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>678366074</v>
+        <v>735729922</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2357,21 +2357,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>955546493</v>
+        <v>677883754</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2134646962233169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>683599056</v>
+        <v>677883754</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2403,21 +2403,21 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.03509852216748768</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>679839793</v>
+        <v>683599056</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -2440,7 +2440,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>696780797</v>
+        <v>735663069</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2463,7 +2463,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677883754</v>
+        <v>696778574</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2472,21 +2472,21 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>677926124</v>
+        <v>678366074</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2495,21 +2495,21 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>696778985</v>
+        <v>679839793</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2518,21 +2518,21 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1225355776</v>
+        <v>696780797</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2541,16 +2541,16 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.166666666666667</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="93">
@@ -2578,7 +2578,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>677988274</v>
+        <v>955546493</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2587,21 +2587,21 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>756839391</v>
+        <v>1225355776</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>677883754</v>
+        <v>766093308</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2633,21 +2633,21 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>696778824</v>
+        <v>756839391</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2656,21 +2656,21 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>678320094</v>
+        <v>696778985</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2679,21 +2679,21 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2702,21 +2702,21 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>766093308</v>
+        <v>696778824</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2725,21 +2725,21 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>TS-1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 1 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>735663069</v>
+        <v>678320094</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2748,12 +2748,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -2762,76 +2762,76 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1742838765</v>
+        <v>677988274</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КАЛИНИНГРАД_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>955556464</v>
+        <v>990330535</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TS-5-teta500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>677981434</v>
+        <v>1742838765</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>955551690</v>
+        <v>678412576</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2840,12 +2840,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ED-20-ETAL5</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -2854,7 +2854,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>678412576</v>
+        <v>677981434</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -2863,21 +2863,21 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>955553282</v>
+        <v>955551690</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2886,67 +2886,67 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ED-20-ETAL2500</t>
+          <t>ED-20-ETAL5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.5175492610837439</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>688529966</v>
+        <v>955553282</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>ED-20-ETAL2500</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5175492610837439</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>678412576</v>
+        <v>955556464</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-5-teta500</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1225355776</v>
+        <v>688529966</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -2955,90 +2955,90 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>678356317</v>
+        <v>678412576</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>МИНСК_МПСЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.2050492610837438</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>696780797</v>
+        <v>1225355776</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.023399014778325</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>696778574</v>
+        <v>678356317</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>МИНСК_МПСЦ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.2050492610837438</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3047,21 +3047,21 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.8882389162561577</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>756835534</v>
+        <v>696778574</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3070,12 +3070,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3084,7 +3084,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>696778824</v>
+        <v>696778985</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3093,21 +3093,21 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.625</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>678360471</v>
+        <v>696778824</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3116,21 +3116,21 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>678320094</v>
+        <v>696780797</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3139,21 +3139,21 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.023399014778325</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>677883754</v>
+        <v>990330535</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3162,21 +3162,21 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3185,21 +3185,21 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>677926124</v>
+        <v>678360471</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3208,16 +3208,16 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.3801313628899836</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="122">
@@ -3245,7 +3245,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>677942539</v>
+        <v>677953003</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3254,21 +3254,21 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>990330535</v>
+        <v>677926124</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3277,21 +3277,21 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1225355776</v>
+        <v>678320094</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3300,21 +3300,21 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8882389162561577</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3323,35 +3323,35 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>756839391</v>
+        <v>756835534</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3360,30 +3360,30 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.75</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>679839793</v>
+        <v>696780797</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3392,16 +3392,16 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3429,7 +3429,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3438,21 +3438,21 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>696780797</v>
+        <v>696778824</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3461,21 +3461,21 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0.05233990147783251</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>677883754</v>
+        <v>955553922</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3484,21 +3484,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0.7134646962233169</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3507,12 +3507,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3553,21 +3553,21 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8081896551724138</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>696778824</v>
+        <v>677883754</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3576,21 +3576,21 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.05233990147783251</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>678360471</v>
+        <v>1225355776</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3599,21 +3599,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.25</v>
+        <v>0.8081896551724138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>955553922</v>
+        <v>679839793</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7134646962233169</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>696778574</v>
+        <v>756835534</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3645,12 +3645,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -3659,53 +3659,53 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>678274222</v>
+        <v>678360471</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>735729922</v>
+        <v>696778574</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>678034901</v>
+        <v>735729922</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AQgel300</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144">
@@ -3774,7 +3774,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1225355776</v>
+        <v>678274222</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3783,62 +3783,62 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>678344590</v>
+        <v>1225355776</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>955546493</v>
+        <v>678034901</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>AQgel300</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149">
@@ -3866,7 +3866,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3875,21 +3875,21 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4.05</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>678366074</v>
+        <v>1225355776</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3898,21 +3898,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.25</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>696778574</v>
+        <v>678366074</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3921,21 +3921,21 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>677981434</v>
+        <v>1364320919</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3944,35 +3944,35 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>678356317</v>
+        <v>678344590</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -3981,48 +3981,48 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>678412576</v>
+        <v>696778574</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4050,21 +4050,21 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>696778824</v>
+        <v>678356317</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4073,255 +4073,255 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1225355776</v>
+        <v>678412576</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>688529966</v>
+        <v>1225355776</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>678356317</v>
+        <v>1363095178</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1363091992</v>
+        <v>696778824</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TEPOLV-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1364320919</v>
+        <v>756839391</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>955546493</v>
+        <v>1225355776</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.375</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>756839133</v>
+        <v>688529966</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>735663069</v>
+        <v>955546493</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>756839391</v>
+        <v>678356317</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>955556860</v>
+        <v>1363091992</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>TEPOLV-1.5</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>678412576</v>
+        <v>1364320919</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1403940886699507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -4349,7 +4349,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>688529966</v>
+        <v>756839133</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4358,173 +4358,173 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1225355776</v>
+        <v>955556860</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2.360309641097818</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>756839133</v>
+        <v>756839391</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>670494599</v>
+        <v>678412576</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ED-20-PEPA10</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>678366074</v>
+        <v>735663069</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>678412576</v>
+        <v>688529966</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>735729922</v>
+        <v>756839133</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>677953003</v>
+        <v>670494599</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-PEPA10</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -4533,71 +4533,71 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>955553922</v>
+        <v>1225355776</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.07019704433497537</v>
+        <v>2.360309641097818</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>677942539</v>
+        <v>678366074</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>756839133</v>
+        <v>735729922</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4625,7 +4625,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>696778985</v>
+        <v>756839133</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4634,21 +4634,21 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>990330535</v>
+        <v>955553922</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -4657,21 +4657,21 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>1225355776</v>
+        <v>677953003</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -4680,21 +4680,21 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>678274222</v>
+        <v>677942539</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -4703,21 +4703,21 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>756839391</v>
+        <v>955554865</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4726,21 +4726,21 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>679839793</v>
+        <v>677926124</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4749,21 +4749,21 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>756835534</v>
+        <v>990330535</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4772,21 +4772,21 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>677926124</v>
+        <v>678274222</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4795,21 +4795,21 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>696778574</v>
+        <v>678320094</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4818,12 +4818,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -4832,7 +4832,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>955554865</v>
+        <v>1742838765</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4841,21 +4841,21 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.25</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4864,21 +4864,21 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1742838765</v>
+        <v>1225355776</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4887,21 +4887,21 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1.166666666666667</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>678320094</v>
+        <v>696778574</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4910,12 +4910,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4924,90 +4924,90 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>955546493</v>
+        <v>696778985</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>678366074</v>
+        <v>696778824</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1403940886699507</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>756839391</v>
+        <v>679839793</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1225355776</v>
+        <v>677883754</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -5016,329 +5016,329 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1594235812</v>
+        <v>678412576</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>735729922</v>
+        <v>756835534</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>677926124</v>
+        <v>955546493</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>678320094</v>
+        <v>678366074</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>990330535</v>
+        <v>756839391</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>677942539</v>
+        <v>1594235812</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>677953003</v>
+        <v>1364320919</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>756838720</v>
+        <v>735729922</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TETA-1000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1225355776</v>
+        <v>677926124</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1.666666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>955546493</v>
+        <v>677942539</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>735729922</v>
+        <v>756839391</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5347,16 +5347,16 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="215">
@@ -5407,67 +5407,67 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>735663069</v>
+        <v>677883754</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>677981434</v>
+        <v>990330535</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>677926124</v>
+        <v>677953003</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -5476,44 +5476,44 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1364320919</v>
+        <v>1225355776</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -5522,21 +5522,21 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>955554865</v>
+        <v>756838720</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>TETA-1000</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5545,145 +5545,145 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>678366074</v>
+        <v>756835534</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>955553922</v>
+        <v>735729922</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.25</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>696778985</v>
+        <v>696778824</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>696778824</v>
+        <v>696778985</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>696780797</v>
+        <v>677942539</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>756835534</v>
+        <v>955546493</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>756839391</v>
+        <v>1364320919</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5692,334 +5692,334 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1742838765</v>
+        <v>1225355776</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>678366074</v>
+        <v>955553922</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>677942539</v>
+        <v>955554865</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>677942539</v>
+        <v>696778824</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>696778824</v>
+        <v>756835534</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>756835534</v>
+        <v>696778985</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2.928571428571428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>677981434</v>
+        <v>678366074</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1.666666666666667</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>696778985</v>
+        <v>677926124</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.3598111658456486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>677988274</v>
+        <v>1742838765</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1364320919</v>
+        <v>735663069</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>990330535</v>
+        <v>677981434</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2.1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>756839391</v>
+        <v>696780797</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -6028,30 +6028,30 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>677883754</v>
+        <v>677953003</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6060,12 +6060,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -6074,7 +6074,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>696778574</v>
+        <v>696778824</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6083,21 +6083,21 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.25</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>678320094</v>
+        <v>696778574</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6106,21 +6106,21 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.6339285714285714</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>683599056</v>
+        <v>1742838765</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6129,21 +6129,21 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.03509852216748768</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>696780797</v>
+        <v>955546493</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -6152,16 +6152,16 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="250">
@@ -6184,12 +6184,12 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2589285714285714</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>955546493</v>
+        <v>677981434</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6198,21 +6198,21 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.5833333333333334</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>735663069</v>
+        <v>678366074</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6221,12 +6221,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -6235,7 +6235,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>735729922</v>
+        <v>678360471</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6244,21 +6244,21 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>756839133</v>
+        <v>1225355776</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6267,21 +6267,21 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.1723111658456486</v>
+        <v>2.71875</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>677926124</v>
+        <v>683599056</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6290,403 +6290,403 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>678366074</v>
+        <v>696778985</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.3378489326765189</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>955546493</v>
+        <v>677942539</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.07019704433497537</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>756839391</v>
+        <v>696780797</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5571428571428572</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>696780797</v>
+        <v>990330535</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.03509852216748768</v>
+        <v>1.958333333333333</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>679839793</v>
+        <v>677942539</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>678356317</v>
+        <v>735663069</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>677883754</v>
+        <v>735729922</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>677926124</v>
+        <v>1364320919</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>677883754</v>
+        <v>955556860</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>696778985</v>
+        <v>756835534</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>677981434</v>
+        <v>677926124</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1225355776</v>
+        <v>756839133</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.333333333333333</v>
+        <v>0.1723111658456486</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>677953003</v>
+        <v>756839391</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.5</v>
+        <v>0.2916666666666666</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>677981434</v>
+        <v>677942539</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -6695,162 +6695,576 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>990330535</v>
+        <v>677988274</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.8342364532019705</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1225355776</v>
+        <v>955546493</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1.461576354679803</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>756835534</v>
+        <v>756839391</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.25</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>735729922</v>
+        <v>678366074</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>677883754</v>
+        <v>678356317</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>756839133</v>
+        <v>677883754</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0.1900656814449918</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>696780797</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>EPO3D-15</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>696778824</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>EPO3D-750</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07019704433497537</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>696778574</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>EPO3D-7,5</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>696778985</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>EPO3D-1.5</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0.8342364532019705</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>756835534</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>ED-20-TETA1</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>1.461576354679803</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
         <v>756839391</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>ХОРУГВИНО_РФЦ</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>ED-20-TETA5</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="D297" t="inlineStr">
         <is>
           <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
-      <c r="E279" t="n">
+      <c r="E297" t="n">
         <v>0.07019704433497537</v>
       </c>
     </row>

--- a/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
+++ b/СТАТИСТИКА/00-Усреднённое-14-дней.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E279"/>
+  <dimension ref="A1:E290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>679932318</v>
+        <v>735729922</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,21 +471,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>T-23-10</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>696778574</v>
+        <v>679932318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -494,21 +494,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>T-23-10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Стеклоткань средней плотности Т-23 (100) отрез 10 метров</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>756839391</v>
+        <v>1574107163</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -517,21 +517,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>sc-bls15750V</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.7017651888341544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>735729922</v>
+        <v>1594235812</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -540,21 +540,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1574107163</v>
+        <v>1225355776</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -563,21 +563,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sc-bls15750V</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из Черноморской гальки (5-10 мм.)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7017651888341544</v>
+        <v>2.11347642505278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1594235812</v>
+        <v>770456244</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -586,21 +586,21 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>AQ-H-3000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>770456244</v>
+        <v>696778574</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -609,21 +609,21 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AQ-H-3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Эпоксидная смола Aquaglass Heavy 3 кг вязкая, густая, для рисования морских картин и жеод ResinArt, для волны, без запаха</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -632,21 +632,21 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.11347642505278</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>756839133</v>
+        <v>990330535</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -655,21 +655,21 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1225355776</v>
+        <v>1363095178</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -678,21 +678,21 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>TEPOLV-6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.548909218859958</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1363095178</v>
+        <v>1225355776</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -701,21 +701,21 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TEPOLV-6</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (6 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>1.548909218859958</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>990330535</v>
+        <v>756839133</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -724,16 +724,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="14">
@@ -761,7 +761,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>696780797</v>
+        <v>678360471</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -770,21 +770,21 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>696778824</v>
+        <v>735729922</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -793,21 +793,21 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>756839391</v>
+        <v>677942539</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -816,21 +816,21 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>678360471</v>
+        <v>679839793</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -839,21 +839,21 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>696778574</v>
+        <v>677981434</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -862,21 +862,21 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>696778985</v>
+        <v>1225355776</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -885,21 +885,21 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5658866995073892</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>677981434</v>
+        <v>678320094</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>677953003</v>
+        <v>677926124</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -931,21 +931,21 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>679839793</v>
+        <v>696778574</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -954,12 +954,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -968,7 +968,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>677942539</v>
+        <v>677883754</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -977,21 +977,21 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>678320094</v>
+        <v>696780797</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1014,7 +1014,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1225355776</v>
+        <v>756835534</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1023,21 +1023,21 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5658866995073892</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>735729922</v>
+        <v>696778824</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>756835534</v>
+        <v>696778985</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1069,16 +1069,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="29">
@@ -1129,7 +1129,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1138,21 +1138,21 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>677926124</v>
+        <v>677953003</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1161,21 +1161,21 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1742838765</v>
+        <v>678344590</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1184,21 +1184,21 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>679839793</v>
+        <v>696778574</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1207,21 +1207,21 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>696778574</v>
+        <v>678320094</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1230,21 +1230,21 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1253,21 +1253,21 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.75</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>678320094</v>
+        <v>677953003</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1276,21 +1276,21 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>677883754</v>
+        <v>696778985</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1299,21 +1299,21 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>696778985</v>
+        <v>990330535</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1322,21 +1322,21 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.07019704433497537</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>677953003</v>
+        <v>677981434</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1225355776</v>
+        <v>696780797</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.7719622331691297</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>677942539</v>
+        <v>679839793</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1391,21 +1391,21 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>990330535</v>
+        <v>1225355776</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1414,21 +1414,21 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.5</v>
+        <v>0.7719622331691297</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>678344590</v>
+        <v>678360471</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1437,21 +1437,21 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>678360471</v>
+        <v>677942539</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1460,12 +1460,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1474,7 +1474,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>696780797</v>
+        <v>677883754</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1483,21 +1483,21 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>696778824</v>
+        <v>1742838765</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1506,16 +1506,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.1900656814449918</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48">
@@ -1543,7 +1543,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1364320919</v>
+        <v>1225355776</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1552,21 +1552,21 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>678366074</v>
+        <v>1364320919</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1575,21 +1575,21 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1067323481116585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>735729922</v>
+        <v>678412576</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1598,21 +1598,21 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1067323481116585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1621,21 +1621,21 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.5</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>678412576</v>
+        <v>735729922</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1644,21 +1644,21 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>677988274</v>
+        <v>770446017</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1667,12 +1667,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1681,7 +1681,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>770446017</v>
+        <v>678412576</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1690,12 +1690,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1704,7 +1704,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>678412576</v>
+        <v>955546493</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1713,16 +1713,16 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.5</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="57">
@@ -1750,7 +1750,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>955546493</v>
+        <v>677988274</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1759,21 +1759,21 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.3801313628899836</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>696778824</v>
+        <v>678320094</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1782,21 +1782,21 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1067323481116585</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>696778574</v>
+        <v>677883754</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1805,21 +1805,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.5</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>677883754</v>
+        <v>756835534</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1828,21 +1828,21 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2134646962233169</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>678320094</v>
+        <v>696778824</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1851,21 +1851,21 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.1067323481116585</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>756835534</v>
+        <v>696778985</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1874,21 +1874,21 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>677883754</v>
+        <v>679839793</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1897,21 +1897,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>677981434</v>
+        <v>1225355776</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1920,21 +1920,21 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1225355776</v>
+        <v>677883754</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1943,21 +1943,21 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>677942539</v>
+        <v>678360471</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1966,16 +1966,16 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
@@ -2003,7 +2003,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>679839793</v>
+        <v>696778574</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2012,21 +2012,21 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>696778985</v>
+        <v>677942539</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2035,21 +2035,21 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2134646962233169</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>678360471</v>
+        <v>677981434</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2058,21 +2058,21 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>696780797</v>
+        <v>756839391</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2081,21 +2081,21 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.03509852216748768</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>677926124</v>
+        <v>696778574</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2104,12 +2104,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2118,7 +2118,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>756839133</v>
+        <v>679839793</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2127,21 +2127,21 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>696778574</v>
+        <v>678412576</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2150,21 +2150,21 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>677981434</v>
+        <v>735663069</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2173,21 +2173,21 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.75</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>679839793</v>
+        <v>756839133</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2196,16 +2196,16 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="78">
@@ -2233,7 +2233,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2242,21 +2242,21 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>735663069</v>
+        <v>1225355776</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2265,21 +2265,21 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>678412576</v>
+        <v>696780797</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2288,12 +2288,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2325,30 +2325,30 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>696778574</v>
+        <v>677926124</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ЖУКОВСКИЙ_РФЦ</t>
+          <t>Екатеринбург_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>678366074</v>
+        <v>683599056</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2357,21 +2357,21 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>955546493</v>
+        <v>735663069</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2380,21 +2380,21 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.2134646962233169</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>683599056</v>
+        <v>696778824</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2403,21 +2403,21 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>679839793</v>
+        <v>1225355776</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2426,16 +2426,16 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.03509852216748768</v>
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="88">
@@ -2463,7 +2463,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>677883754</v>
+        <v>990330535</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2472,12 +2472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -2509,7 +2509,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>696778985</v>
+        <v>955546493</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2518,21 +2518,21 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.75</v>
+        <v>0.2134646962233169</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1225355776</v>
+        <v>679839793</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2541,21 +2541,21 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.166666666666667</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>677981434</v>
+        <v>678366074</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2564,21 +2564,21 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.75</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>677988274</v>
+        <v>678320094</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2587,21 +2587,21 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>756839391</v>
+        <v>677981434</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2610,21 +2610,21 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>677883754</v>
+        <v>756839391</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -2647,7 +2647,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>696778824</v>
+        <v>696778985</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -2670,7 +2670,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>678320094</v>
+        <v>735729922</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2679,21 +2679,21 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>990330535</v>
+        <v>677883754</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2702,16 +2702,16 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -2739,7 +2739,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>735663069</v>
+        <v>677988274</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2748,90 +2748,90 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1742838765</v>
+        <v>677883754</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>КАЛИНИНГРАД_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>955556464</v>
+        <v>696778574</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>ЖУКОВСКИЙ_РФЦ</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>TS-5-teta500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>677981434</v>
+        <v>1742838765</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>КРАСНОЯРСК_МРФЦ</t>
+          <t>КАЛИНИНГРАД_МРФЦ</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>955551690</v>
+        <v>955553282</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -2840,16 +2840,16 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ED-20-ETAL5</t>
+          <t>ED-20-ETAL2500</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.5175492610837439</v>
       </c>
     </row>
     <row r="106">
@@ -2877,7 +2877,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>955553282</v>
+        <v>955556464</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2886,62 +2886,62 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ED-20-ETAL2500</t>
+          <t>TS-5-teta500</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем Этал-45М</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 5.5 кг</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.5175492610837439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>688529966</v>
+        <v>677981434</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>678412576</v>
+        <v>955551690</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Казань_РФЦ_НОВЫЙ</t>
+          <t>КРАСНОЯРСК_МРФЦ</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>ED-20-ETAL5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем Этал-45М</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="110">
@@ -2969,76 +2969,76 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>678356317</v>
+        <v>678412576</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>МИНСК_МПСЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.2050492610837438</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>696780797</v>
+        <v>688529966</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>Казань_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.023399014778325</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>696778574</v>
+        <v>678356317</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>НЕВИННОМЫССК_РФЦ</t>
+          <t>МИНСК_МПСЦ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.2050492610837438</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>696778985</v>
+        <v>677926124</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3047,21 +3047,21 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.3801313628899836</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>756835534</v>
+        <v>678320094</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3070,12 +3070,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -3084,7 +3084,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>696778824</v>
+        <v>677953003</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3093,21 +3093,21 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>678360471</v>
+        <v>1225355776</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3116,21 +3116,21 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.8882389162561577</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>678320094</v>
+        <v>677942539</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3139,21 +3139,21 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>677883754</v>
+        <v>677981434</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3162,21 +3162,21 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>677883754</v>
+        <v>990330535</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3185,21 +3185,21 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>677926124</v>
+        <v>696780797</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3208,21 +3208,21 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.3801313628899836</v>
+        <v>1.023399014778325</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>677981434</v>
+        <v>696778824</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3231,21 +3231,21 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>677942539</v>
+        <v>696778574</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3254,21 +3254,21 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.375</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>990330535</v>
+        <v>756835534</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3277,21 +3277,21 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3300,21 +3300,21 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.8882389162561577</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>677953003</v>
+        <v>678360471</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3323,67 +3323,67 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>756839391</v>
+        <v>677883754</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>677981434</v>
+        <v>677883754</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
+          <t>НЕВИННОМЫССК_РФЦ</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>679839793</v>
+        <v>756835534</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3392,21 +3392,21 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>770446017</v>
+        <v>696780797</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3415,21 +3415,21 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>AQ-H-1500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>756835534</v>
+        <v>677883754</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3438,21 +3438,21 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1900656814449918</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>696780797</v>
+        <v>677883754</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3461,21 +3461,21 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>677883754</v>
+        <v>696778824</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3484,21 +3484,21 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>0.05233990147783251</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>677883754</v>
+        <v>770446017</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3507,21 +3507,21 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ-H-1500</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Heavy 1,5кг густая, для рисования моря Resin Art, без пузырей, создания часов и творчества, для волны, для диорамы</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>677953003</v>
+        <v>696778574</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3530,21 +3530,21 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1225355776</v>
+        <v>677953003</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3553,21 +3553,21 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>0.8081896551724138</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>696778824</v>
+        <v>1225355776</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3576,21 +3576,21 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>0.05233990147783251</v>
+        <v>0.8081896551724138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>678360471</v>
+        <v>677981434</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3599,21 +3599,21 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>AQ1500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>955553922</v>
+        <v>756839391</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3622,21 +3622,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>0.7134646962233169</v>
+        <v>0.6900656814449918</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>696778574</v>
+        <v>955553922</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3645,67 +3645,67 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.7134646962233169</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>678274222</v>
+        <v>679839793</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>735729922</v>
+        <v>678360471</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>НОВОРОССИЙСК_МРФЦ</t>
+          <t>НИЖНИЙ_НОВГОРОД_РФЦ</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>678034901</v>
+        <v>735729922</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AQgel300</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="144">
@@ -3774,7 +3774,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1225355776</v>
+        <v>678034901</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -3783,35 +3783,35 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>AQgel300</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола AquaGlass GEL 300г средней вязкости, прозрачная, универсальная, для рисования resinart, для заливки в молды, без пузырей, для космоса</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>678344590</v>
+        <v>678274222</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AQ15000</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -3820,30 +3820,30 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>955546493</v>
+        <v>1225355776</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>НОГИНСК_РФЦ</t>
+          <t>НОВОРОССИЙСК_МРФЦ</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>0.3567323481116584</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>696780797</v>
+        <v>696778574</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -3852,21 +3852,21 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1225355776</v>
+        <v>677981434</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -3875,21 +3875,21 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4.05</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>678366074</v>
+        <v>1225355776</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -3898,21 +3898,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>0.25</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>696778574</v>
+        <v>696780797</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -3921,21 +3921,21 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>677981434</v>
+        <v>678344590</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -3944,67 +3944,67 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>AQ15000</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола AquaGlass Citrus 15кг жидкая универсальная, для бижутерии и рисования ResinArt, для творчества, быстрая, для заливки в молды, без пузырей</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>678356317</v>
+        <v>955546493</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1225355776</v>
+        <v>678366074</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Новосибирск_РФЦ_НОВЫЙ</t>
+          <t>НОГИНСК_РФЦ</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>678412576</v>
+        <v>678356317</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4013,12 +4013,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4027,7 +4027,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>735769060</v>
+        <v>678412576</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4036,81 +4036,81 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ETAL-2500</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>696778824</v>
+        <v>1225355776</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ОМСК_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1225355776</v>
+        <v>735769060</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>Новосибирск_РФЦ_НОВЫЙ</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ETAL-2500</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Отвердитель Этал-45М 2500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>688529966</v>
+        <v>696778824</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ОРЕНБУРГ_РФЦ</t>
+          <t>ОМСК_РФЦ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -4119,71 +4119,71 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>678356317</v>
+        <v>756839391</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1363091992</v>
+        <v>688529966</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TEPOLV-1.5</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1364320919</v>
+        <v>1225355776</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ПЕТРОВСКОЕ_РФЦ</t>
+          <t>ОРЕНБУРГ_РФЦ</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="164">
@@ -4211,67 +4211,67 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>756839133</v>
+        <v>678356317</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>EPIC1500</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>0.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>735663069</v>
+        <v>1363091992</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>TEPOLV-1.5</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для наливных полов Технопол (1,5 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>756839391</v>
+        <v>1364320919</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ПУШКИНО_1_РФЦ</t>
+          <t>ПЕТРОВСКОЕ_РФЦ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -4280,7 +4280,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>955556860</v>
+        <v>678320094</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4289,21 +4289,21 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TS-1-teta100</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>678412576</v>
+        <v>955556860</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4312,21 +4312,21 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TS-1-teta100</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 1.1 кг</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>0.1403940886699507</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>678320094</v>
+        <v>756839133</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4335,21 +4335,21 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>688529966</v>
+        <v>678412576</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4358,90 +4358,90 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TS-10</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>0.25</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2.360309641097818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>756839133</v>
+        <v>688529966</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-10</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 10 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>670494599</v>
+        <v>735663069</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ПУШКИНО_2_РФЦ</t>
+          <t>ПУШКИНО_1_РФЦ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ED-20-PEPA10</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>678366074</v>
+        <v>1225355776</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4450,136 +4450,136 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>0.75</v>
+        <v>2.360309641097818</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>678412576</v>
+        <v>756839133</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.03509852216748768</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>735729922</v>
+        <v>670494599</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ростов_на_Дону_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-PEPA10</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 10 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>677953003</v>
+        <v>678366074</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>ПУШКИНО_2_РФЦ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>955553922</v>
+        <v>735729922</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>677942539</v>
+        <v>678412576</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>САМАРА_РФЦ</t>
+          <t>Ростов_на_Дону_РФЦ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1.5</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>756839133</v>
+        <v>756839391</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4588,21 +4588,21 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>678412576</v>
+        <v>696778574</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -4611,21 +4611,21 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>EPIC7500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>696778985</v>
+        <v>677953003</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -4634,21 +4634,21 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>990330535</v>
+        <v>679839793</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -4694,7 +4694,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>678274222</v>
+        <v>756835534</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -4703,21 +4703,21 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AQ300</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>756839391</v>
+        <v>696778985</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -4726,21 +4726,21 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>679839793</v>
+        <v>955554865</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -4749,21 +4749,21 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>756835534</v>
+        <v>955553922</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -4772,21 +4772,21 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>677926124</v>
+        <v>756839133</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -4795,21 +4795,21 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>696778574</v>
+        <v>677926124</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -4818,21 +4818,21 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>955554865</v>
+        <v>678320094</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -4841,21 +4841,21 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>677883754</v>
+        <v>677942539</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -4864,21 +4864,21 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1742838765</v>
+        <v>678274222</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -4887,21 +4887,21 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>AQ300</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Эпоксидная смола AquaGlass Citrus 300г жидкая универсальная, прозрачная, для бижутерии и рисования ResinArt, для творчества, быстрая, для литья</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>1.166666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>678320094</v>
+        <v>677883754</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -4910,12 +4910,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -4924,145 +4924,145 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>955546493</v>
+        <v>1742838765</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>1.166666666666667</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>678366074</v>
+        <v>990330535</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>0.1403940886699507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>756839391</v>
+        <v>678412576</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>СОФЬИНО_РФЦ</t>
+          <t>САМАРА_РФЦ</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPIC7500</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 7,5 кг</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1594235812</v>
+        <v>955546493</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>sc-chr15750V</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>735729922</v>
+        <v>678366074</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>СПБ_БУГРЫ_РФЦ</t>
+          <t>СОФЬИНО_РФЦ</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.1403940886699507</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>677926124</v>
+        <v>677942539</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5071,182 +5071,182 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>678320094</v>
+        <v>756835534</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>990330535</v>
+        <v>1594235812</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>sc-chr15750V</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Набор Каменный ковёр для самостоятельной укладки из гальки черноморец (5-10 мм.)</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>677942539</v>
+        <v>678320094</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>696778824</v>
+        <v>677883754</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>677953003</v>
+        <v>735729922</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>696778985</v>
+        <v>677926124</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>756838720</v>
+        <v>1225355776</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>СПБ_КОЛПИНО_РФЦ</t>
+          <t>СПБ_БУГРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TETA-1000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>1225355776</v>
+        <v>677926124</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5255,21 +5255,21 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>756835534</v>
+        <v>677942539</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5278,21 +5278,21 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>955546493</v>
+        <v>677953003</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5301,21 +5301,21 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.3567323481116584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5324,21 +5324,21 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>735729922</v>
+        <v>756839391</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5347,21 +5347,21 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>0.3567323481116584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1742838765</v>
+        <v>955546493</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5370,21 +5370,21 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>677926124</v>
+        <v>990330535</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5393,108 +5393,108 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>735663069</v>
+        <v>1742838765</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>0.03509852216748768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>677981434</v>
+        <v>1225355776</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>677926124</v>
+        <v>735729922</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0.3567323481116584</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>1364320919</v>
+        <v>696778824</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -5517,26 +5517,26 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>955554865</v>
+        <v>756838720</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TS-10-teta1</t>
+          <t>TETA-1000</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
+          <t>Отвердитель ТЭТА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -5545,53 +5545,53 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>678366074</v>
+        <v>696778985</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.07019704433497537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>955553922</v>
+        <v>756835534</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>СПБ_ШУШАРЫ_РФЦ</t>
+          <t>СПБ_КОЛПИНО_РФЦ</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TS-5-pepa500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>696778985</v>
+        <v>677981434</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -5600,21 +5600,21 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>696778824</v>
+        <v>696780797</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -5623,21 +5623,21 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.75</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>696780797</v>
+        <v>677883754</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -5646,21 +5646,21 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>756835534</v>
+        <v>955554865</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -5669,21 +5669,21 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>TS-10-teta1</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ТЭТА 11 кг</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>2</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>756839391</v>
+        <v>696778985</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -5692,12 +5692,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -5706,214 +5706,214 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>1742838765</v>
+        <v>955553922</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>nabor-morskoy</t>
+          <t>TS-5-pepa500</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 5.5 кг</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>678366074</v>
+        <v>756835534</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.03509852216748768</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>677942539</v>
+        <v>677926124</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>677942539</v>
+        <v>735663069</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>MN3000</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>696778824</v>
+        <v>756835534</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 с отвердителем ТЭТА, 1,1 кг (для ремонта, строительства)</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>677953003</v>
+        <v>678366074</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>756835534</v>
+        <v>1364320919</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1225355776</v>
+        <v>696778824</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2.928571428571428</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>677981434</v>
+        <v>756839391</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Санкт_Петербург_РФЦ</t>
+          <t>СПБ_ШУШАРЫ_РФЦ</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1.666666666666667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>696778985</v>
+        <v>677883754</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -5922,21 +5922,21 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>0.3598111658456486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>677988274</v>
+        <v>677953003</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -5945,21 +5945,21 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ED-20-PEPA-5</t>
+          <t>MN15000</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>1364320919</v>
+        <v>677883754</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -5968,21 +5968,21 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TEPOLV-15</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>990330535</v>
+        <v>677942539</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -5991,21 +5991,21 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Эпоксидная смола MONOLIT 3 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>2.1</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>756839391</v>
+        <v>1364320919</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6014,21 +6014,21 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>TEPOLV-15</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная смола для наливных полов Технопол (15 кг) для технических и производственных помещений, для заливки с наполнителем.</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>677883754</v>
+        <v>1225355776</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6037,21 +6037,21 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>0.75</v>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>677883754</v>
+        <v>677926124</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6060,21 +6060,21 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>MN1500</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>696778574</v>
+        <v>677981434</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6083,21 +6083,21 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>0.25</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>678320094</v>
+        <v>990330535</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6106,21 +6106,21 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>AQ3000</t>
+          <t>naborgalaxy</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>0.6339285714285714</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>683599056</v>
+        <v>677942539</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6129,21 +6129,21 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>TS-5</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
+          <t>Эпоксидная смола для столешниц, слэбов и объемных заливок MONOLIT 3 кг (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.03509852216748768</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>696780797</v>
+        <v>677942539</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -6152,21 +6152,21 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>MN3000</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для столешниц, слэбов, объемных заливок 3 кг MONOLIT (прозрачная, жидкая, толстослойная, до 5 см)</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>0.03509852216748768</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>679839793</v>
+        <v>678360471</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -6175,21 +6175,21 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>AQ1500</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Эпоксидная смола AquaGlass Citrus 1,5кг жидкая универсальная, ювелирная, без пузырей, для бижутерии и рисования ResinArt, для литья</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>0.2619047619047619</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>955546493</v>
+        <v>1742838765</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6198,21 +6198,21 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>nabor-morskoy</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Набор для творчества с эпоксидной смолой Море для рисования картины resinart</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>0.5833333333333334</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>735663069</v>
+        <v>696778824</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6221,21 +6221,21 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>PEPA-1000</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>735729922</v>
+        <v>696778574</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6244,21 +6244,21 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>756839133</v>
+        <v>683599056</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6267,21 +6267,21 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>TS-5</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола модифицированная Техностар 5 кг для изготовления наливных полов, ремонта и лодок</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>0.1723111658456486</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>677926124</v>
+        <v>756835534</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6290,150 +6290,150 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>ED-20-TETA1</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>678366074</v>
+        <v>679839793</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>EPIC750</t>
+          <t>AQ6000</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>955546493</v>
+        <v>756839391</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>TS-1-pepa100</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>756839391</v>
+        <v>696778985</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ТВЕРЬ_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>ED-20-TETA5</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>0.75</v>
+        <v>0.4878489326765189</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>696778824</v>
+        <v>678366074</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>EPO3D-750</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>0.07019704433497537</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>696780797</v>
+        <v>756839133</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>EPO3D-15</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.1723111658456486</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>679839793</v>
+        <v>735663069</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>AQ6000</t>
+          <t>PEPA-1000</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+          <t>Отвердитель ПЭПА 1 кг (для 10 кг смолы)</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -6442,21 +6442,21 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>678356317</v>
+        <v>735729922</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>EPIC1500</t>
+          <t>PEPA-500</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -6465,168 +6465,168 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>677883754</v>
+        <v>678320094</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>AQ3000</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола AquaGlass Citrus 3кг жидкая универсальная, для ювелирных заливок и рисования ResinArt, для столешниц, без пузырей</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.7071428571428571</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>677926124</v>
+        <v>696780797</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MN1500</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>0.1900656814449918</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>677883754</v>
+        <v>677988274</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>ED-20-PEPA-5</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Универсальная эпоксидная смола ЭД-20 5 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>696778985</v>
+        <v>955546493</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>Санкт_Петербург_РФЦ</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>EPO3D-1.5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>677981434</v>
+        <v>678366074</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPIC750</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная смола для покрытия стен Epicoat 750 гр</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1225355776</v>
+        <v>756839391</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>ED-20-TETA5</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>4.333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>696778574</v>
+        <v>955546493</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>УФА_РФЦ</t>
+          <t>ТВЕРЬ_РФЦ</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EPO3D-7,5</t>
+          <t>TS-1-pepa100</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
+          <t>Комплект эпоксидная смола модифицированная Техностар + отвердитель ПЭПА 1.1 кг</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.03509852216748768</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>677953003</v>
+        <v>677883754</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -6635,21 +6635,21 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>MN15000</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>756839133</v>
+        <v>696778824</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -6658,12 +6658,12 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>EPO3D-750</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (750 гр.), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -6672,185 +6672,438 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>677981434</v>
+        <v>696780797</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ED-20-PEPA1</t>
+          <t>EPO3D-15</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (15 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>1</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>990330535</v>
+        <v>677883754</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>naborgalaxy</t>
+          <t>MN6000</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+          <t>Смола Эпоксидная для заливки столешниц MONOLIT толстослойная (стол-река, для дерева, до 5 см)</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>0.8342364532019705</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>1225355776</v>
+        <v>696778985</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>nabor_sea2.0</t>
+          <t>EPO3D-1.5</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (1,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>1.461576354679803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>756835534</v>
+        <v>696778574</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>ED-20-TETA1</t>
+          <t>EPO3D-7,5</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+          <t>Эпоксидная прозрачная смола для наливных полов Epo-3D (7,5 кг), средней вязкости, глянцевое финишное покрытие, без пузырей, для 3D полов.</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.25</v>
+        <v>0.03509852216748768</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>735729922</v>
+        <v>1225355776</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PEPA-500</t>
+          <t>nabor_sea2.0</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>0.5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>677883754</v>
+        <v>756839133</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MN6000</t>
+          <t>TETA-500</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.25</v>
+        <v>0.07019704433497537</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>756839133</v>
+        <v>677981434</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ХАБАРОВСК_2_РФЦ</t>
+          <t>УФА_РФЦ</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>TETA-500</t>
+          <t>ED-20-PEPA1</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
+        <v>679839793</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>AQ6000</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола AquaGlass Citrus 6кг жидкая универсальная, для ювелирной заливки и рисования ResinArt</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>0.03509852216748768</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>677926124</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>MN1500</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 1,5 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0.1900656814449918</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>678356317</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>EPIC1500</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для покрытия стен Epicoat 1,5 кг</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>677953003</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>УФА_РФЦ</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>MN15000</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 15 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>677883754</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>MN6000</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола MONOLIT 6 кг для заливки столешниц (стол-река, для дерева, до 5 см)</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>756839133</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>TETA-500</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Отвердитель ТЭТА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>756835534</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>ED-20-TETA1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ТЭТА</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>735729922</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>PEPA-500</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Отвердитель ПЭПА 500 гр. (для 5 кг смолы)</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>677981434</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>ED-20-PEPA1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола ЭД-20 1 кг в комплекте с отвердителем ПЭПА</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1225355776</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>nabor_sea2.0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Море, resin art)</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>1.461576354679803</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>990330535</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>ХАБАРОВСК_2_РФЦ</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>naborgalaxy</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Эпоксидная смола для творчества (набор для рисования Космос, resinart)</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.8342364532019705</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
         <v>756839391</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>ХОРУГВИНО_РФЦ</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>ED-20-TETA5</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr">
+      <c r="D290" t="inlineStr">
         <is>
           <t>Эпоксидная смола ЭД-20 в комплекте с отвердителем ТЭТА 5,5 кг</t>
         </is>
       </c>
-      <c r="E279" t="n">
+      <c r="E290" t="n">
         <v>0.07019704433497537</v>
       </c>
     </row>
